--- a/AdditionalMetrics/AdditionalMetricsExperiments_4_5_6_Architecture_4_Server.xlsx
+++ b/AdditionalMetrics/AdditionalMetricsExperiments_4_5_6_Architecture_4_Server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\ACEPTADOS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,9 +305,6 @@
     <t>T_mem_RAM (bytes)</t>
   </si>
   <si>
-    <t>RSS (Resisden Set Size) (bytes)</t>
-  </si>
-  <si>
     <t>VSZ (Virtual Set Size) (bytes)</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>Experiment 6</t>
+  </si>
+  <si>
+    <t>RSS (Resident Set Size) (bytes)</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:H993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D534" sqref="D534"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -713,16 +713,16 @@
         <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3621,7 +3621,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7630,7 +7630,7 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="537" spans="1:8">
